--- a/nuon/instagram_posts_go_bambi.xlsx
+++ b/nuon/instagram_posts_go_bambi.xlsx
@@ -3334,7 +3334,7 @@
         <v>2</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>434</v>
       </c>
       <c r="E45">
         <v>195</v>
@@ -3381,7 +3381,7 @@
         <v>2</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>292</v>
       </c>
       <c r="E46">
         <v>148</v>
@@ -3475,7 +3475,7 @@
         <v>2</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>393</v>
       </c>
       <c r="E48">
         <v>137</v>
@@ -3522,7 +3522,7 @@
         <v>2</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>491</v>
       </c>
       <c r="E49">
         <v>126</v>
